--- a/data/trans_orig/P6514-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22270E95-5BFC-4B23-B15C-61C3840C2427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0105E329-41A3-4EA0-85E8-CCF4A007F4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF2E500E-A921-4182-81D7-2998730D5929}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4645C7AF-1CC4-4451-B7A0-D1749183ADEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>33,06%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>36,58%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,148 +134,154 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>13,46%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>29,16%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>6,93%</t>
@@ -290,331 +296,331 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,64%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>28,32%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -623,7 +629,7 @@
     <t>49,04%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -635,7 +641,7 @@
     <t>70,35%</t>
   </si>
   <si>
-    <t>28,69%</t>
+    <t>31,95%</t>
   </si>
   <si>
     <t>50,96%</t>
@@ -644,7 +650,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>87,54%</t>
+    <t>88,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -656,7 +662,7 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>71,31%</t>
+    <t>68,05%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -668,103 +674,103 @@
     <t>29,34%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>25,48%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1179,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391EC418-63F1-43B2-B1F8-B539A18884E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3FECBE-0353-4E07-AD33-4AA7C5A848EA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,10 +1584,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>262</v>
@@ -1590,13 +1596,13 @@
         <v>280051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1617,13 @@
         <v>190437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -1626,13 +1632,13 @@
         <v>115412</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>290</v>
@@ -1641,13 +1647,13 @@
         <v>305849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1668,13 @@
         <v>138953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -1677,13 +1683,13 @@
         <v>70588</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -1692,13 +1698,13 @@
         <v>209540</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1719,13 @@
         <v>72121</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -1728,13 +1734,13 @@
         <v>23602</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -1743,13 +1749,13 @@
         <v>95723</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1811,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1817,13 +1823,13 @@
         <v>167426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -1832,13 +1838,13 @@
         <v>108894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -1847,13 +1853,13 @@
         <v>276320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1874,13 @@
         <v>183927</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>113</v>
@@ -1883,13 +1889,13 @@
         <v>118081</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>292</v>
@@ -1898,13 +1904,13 @@
         <v>302007</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1925,13 @@
         <v>133937</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1934,13 +1940,13 @@
         <v>58386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -1949,13 +1955,13 @@
         <v>192323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1976,13 @@
         <v>78543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1985,13 +1991,13 @@
         <v>19186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -2000,13 +2006,13 @@
         <v>97728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,7 +2068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2074,13 +2080,13 @@
         <v>118336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2089,13 +2095,13 @@
         <v>68111</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -2104,13 +2110,13 @@
         <v>186448</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2131,13 @@
         <v>148511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -2140,13 +2146,13 @@
         <v>59181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -2155,13 +2161,13 @@
         <v>207692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2182,13 @@
         <v>104646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2191,13 +2197,13 @@
         <v>29023</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2206,13 +2212,13 @@
         <v>133669</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2263,13 @@
         <v>79184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2331,13 +2337,13 @@
         <v>60705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -2346,13 +2352,13 @@
         <v>22402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2361,13 +2367,13 @@
         <v>83106</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2388,13 @@
         <v>54585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2397,13 +2403,13 @@
         <v>24273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2412,13 +2418,13 @@
         <v>78858</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2439,13 @@
         <v>35815</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -2448,13 +2454,13 @@
         <v>13815</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2463,13 +2469,13 @@
         <v>49630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2490,13 @@
         <v>12263</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2499,13 +2505,13 @@
         <v>2781</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -2514,13 +2520,13 @@
         <v>15044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,7 +2582,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2588,13 +2594,13 @@
         <v>2471</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2603,10 +2609,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2618,13 +2624,13 @@
         <v>6091</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2645,13 @@
         <v>2567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2654,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2669,13 +2675,13 @@
         <v>2568</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2705,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2720,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2756,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2771,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2851,13 @@
         <v>556223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>381</v>
@@ -2860,13 +2866,13 @@
         <v>400208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>911</v>
@@ -2875,13 +2881,13 @@
         <v>956431</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2902,13 @@
         <v>644307</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>344</v>
@@ -2911,13 +2917,13 @@
         <v>358408</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>966</v>
@@ -2926,13 +2932,13 @@
         <v>1002715</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2953,13 @@
         <v>446868</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -2962,13 +2968,13 @@
         <v>192506</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>613</v>
@@ -2977,13 +2983,13 @@
         <v>639374</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>248527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>68</v>
@@ -3013,13 +3019,13 @@
         <v>70294</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>302</v>
@@ -3028,13 +3034,13 @@
         <v>318821</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0105E329-41A3-4EA0-85E8-CCF4A007F4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0DDDD1-3236-4A64-8DA4-C551F33DEC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4645C7AF-1CC4-4451-B7A0-D1749183ADEA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2B81F9E-4716-4B2D-B53E-70EFC26383DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,703 +74,706 @@
     <t>33,06%</t>
   </si>
   <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1185,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3FECBE-0353-4E07-AD33-4AA7C5A848EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2176-1678-4742-97A6-48752D97AC1F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,13 +1516,13 @@
         <v>175720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -1528,13 +1531,13 @@
         <v>139789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -1543,18 +1546,18 @@
         <v>315509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1566,13 +1569,13 @@
         <v>149196</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -1581,13 +1584,13 @@
         <v>130855</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>262</v>
@@ -1596,13 +1599,13 @@
         <v>280051</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1620,13 @@
         <v>190437</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -1632,13 +1635,13 @@
         <v>115412</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>290</v>
@@ -1647,13 +1650,13 @@
         <v>305849</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1671,13 @@
         <v>138953</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -1683,13 +1686,13 @@
         <v>70588</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -1698,13 +1701,13 @@
         <v>209540</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1722,13 @@
         <v>72121</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -1734,13 +1737,13 @@
         <v>23602</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -1749,13 +1752,13 @@
         <v>95723</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1773,13 @@
         <v>550707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>322</v>
@@ -1785,13 +1788,13 @@
         <v>340456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>844</v>
@@ -1800,18 +1803,18 @@
         <v>891163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1823,13 +1826,13 @@
         <v>167426</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -1838,13 +1841,13 @@
         <v>108894</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -1853,13 +1856,13 @@
         <v>276320</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1877,13 @@
         <v>183927</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>113</v>
@@ -1889,13 +1892,13 @@
         <v>118081</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>292</v>
@@ -1904,13 +1907,13 @@
         <v>302007</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1928,13 @@
         <v>133937</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1940,13 +1943,13 @@
         <v>58386</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -1955,13 +1958,13 @@
         <v>192323</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1979,13 @@
         <v>78543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1991,13 +1994,13 @@
         <v>19186</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -2006,13 +2009,13 @@
         <v>97728</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2030,13 @@
         <v>563832</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2042,13 +2045,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>832</v>
@@ -2057,18 +2060,18 @@
         <v>868378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2080,13 +2083,13 @@
         <v>118336</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2095,13 +2098,13 @@
         <v>68111</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -2110,13 +2113,13 @@
         <v>186448</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2134,13 @@
         <v>148511</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -2146,13 +2149,13 @@
         <v>59181</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -2161,13 +2164,13 @@
         <v>207692</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2185,13 @@
         <v>104646</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2197,7 +2200,7 @@
         <v>29023</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>146</v>
@@ -2218,7 +2221,7 @@
         <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2236,13 @@
         <v>65766</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2248,13 +2251,13 @@
         <v>13418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -2263,13 +2266,13 @@
         <v>79184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>437260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2299,13 +2302,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>569</v>
@@ -2314,18 +2317,18 @@
         <v>606993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2337,13 +2340,13 @@
         <v>60705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -2352,13 +2355,13 @@
         <v>22402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2367,13 +2370,13 @@
         <v>83106</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2391,13 @@
         <v>54585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2442,10 +2445,10 @@
         <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -2454,13 +2457,13 @@
         <v>13815</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2469,13 +2472,13 @@
         <v>49630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2493,13 @@
         <v>12263</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2505,13 +2508,13 @@
         <v>2781</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -2520,13 +2523,13 @@
         <v>15044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2544,13 @@
         <v>163368</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -2556,13 +2559,13 @@
         <v>63271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>227</v>
@@ -2571,18 +2574,18 @@
         <v>226638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2594,13 +2597,13 @@
         <v>2471</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2609,13 +2612,13 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2624,13 +2627,13 @@
         <v>6091</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2648,13 @@
         <v>2567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2660,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2675,13 +2678,13 @@
         <v>2568</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2711,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2726,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2762,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2777,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2801,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2813,13 +2816,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2828,13 +2831,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2854,13 @@
         <v>556223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>381</v>
@@ -2866,13 +2869,13 @@
         <v>400208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>911</v>
@@ -2881,13 +2884,13 @@
         <v>956431</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2905,13 @@
         <v>644307</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>344</v>
@@ -2917,13 +2920,13 @@
         <v>358408</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>966</v>
@@ -2932,13 +2935,13 @@
         <v>1002715</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2956,13 @@
         <v>446868</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -2968,13 +2971,13 @@
         <v>192506</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>613</v>
@@ -2986,10 +2989,10 @@
         <v>178</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3007,13 @@
         <v>248527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>68</v>
@@ -3019,13 +3022,13 @@
         <v>70294</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>302</v>
@@ -3034,13 +3037,13 @@
         <v>318821</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3058,13 @@
         <v>1895924</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>977</v>
@@ -3070,13 +3073,13 @@
         <v>1021416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2792</v>
@@ -3085,18 +3088,18 @@
         <v>2917341</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0DDDD1-3236-4A64-8DA4-C551F33DEC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF6B5EC-989B-40B0-B5A4-54FD63F9C8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2B81F9E-4716-4B2D-B53E-70EFC26383DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24107AAE-6BE8-48D4-9710-D03F205128B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="244">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>33,06%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>36,58%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,139 +164,136 @@
     <t>11,29%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -305,106 +302,109 @@
     <t>29,69%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>35,76%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>44,8%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -413,367 +413,358 @@
     <t>27,06%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>22,84%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>14,79%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2176-1678-4742-97A6-48752D97AC1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01140C55-C713-4CFE-84A5-7087601F5CE7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1501,7 +1492,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1507,13 @@
         <v>175720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -1531,13 +1522,13 @@
         <v>139789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -1546,18 +1537,18 @@
         <v>315509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1560,13 @@
         <v>149196</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -1584,10 +1575,10 @@
         <v>130855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>56</v>
@@ -1653,10 +1644,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1662,13 @@
         <v>138953</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -1686,13 +1677,13 @@
         <v>70588</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -1701,13 +1692,13 @@
         <v>209540</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1713,13 @@
         <v>72121</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -1737,13 +1728,13 @@
         <v>23602</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -1752,13 +1743,13 @@
         <v>95723</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1764,13 @@
         <v>550707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>322</v>
@@ -1788,13 +1779,13 @@
         <v>340456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>844</v>
@@ -1803,18 +1794,18 @@
         <v>891163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1826,13 +1817,13 @@
         <v>167426</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -1841,13 +1832,13 @@
         <v>108894</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -1856,13 +1847,13 @@
         <v>276320</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1868,13 @@
         <v>183927</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>113</v>
@@ -1892,10 +1883,10 @@
         <v>118081</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>101</v>
@@ -2030,13 +2021,13 @@
         <v>563832</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2045,13 +2036,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>832</v>
@@ -2060,13 +2051,13 @@
         <v>868378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2080,7 @@
         <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2098,13 +2089,13 @@
         <v>68111</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -2113,13 +2104,13 @@
         <v>186448</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2125,13 @@
         <v>148511</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -2149,13 +2140,13 @@
         <v>59181</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -2164,13 +2155,13 @@
         <v>207692</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2176,13 @@
         <v>104646</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2200,13 +2191,13 @@
         <v>29023</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2215,13 +2206,13 @@
         <v>133669</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2227,13 @@
         <v>65766</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2251,13 +2242,13 @@
         <v>13418</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -2266,13 +2257,13 @@
         <v>79184</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2278,13 @@
         <v>437260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2302,13 +2293,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>569</v>
@@ -2317,18 +2308,18 @@
         <v>606993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2331,13 @@
         <v>60705</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -2355,13 +2346,13 @@
         <v>22402</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2370,13 +2361,13 @@
         <v>83106</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2382,13 @@
         <v>54585</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2406,13 +2397,13 @@
         <v>24273</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2421,13 +2412,13 @@
         <v>78858</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2433,13 @@
         <v>35815</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -2457,13 +2448,13 @@
         <v>13815</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2472,13 +2463,13 @@
         <v>49630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2484,13 @@
         <v>12263</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2508,13 +2499,13 @@
         <v>2781</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -2523,13 +2514,13 @@
         <v>15044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2535,13 @@
         <v>163368</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -2559,13 +2550,13 @@
         <v>63271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>227</v>
@@ -2574,18 +2565,18 @@
         <v>226638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2597,13 +2588,13 @@
         <v>2471</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2612,13 +2603,13 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2627,13 +2618,13 @@
         <v>6091</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2639,13 @@
         <v>2567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2663,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2678,13 +2669,13 @@
         <v>2568</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2714,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2729,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2765,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2780,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2792,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2816,13 +2807,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2831,13 +2822,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2845,13 @@
         <v>556223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>381</v>
@@ -2869,13 +2860,13 @@
         <v>400208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>911</v>
@@ -2884,13 +2875,13 @@
         <v>956431</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2896,13 @@
         <v>644307</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
         <v>344</v>
@@ -2920,13 +2911,13 @@
         <v>358408</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M35" s="7">
         <v>966</v>
@@ -2935,13 +2926,13 @@
         <v>1002715</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2947,13 @@
         <v>446868</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -2971,13 +2962,13 @@
         <v>192506</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7">
         <v>613</v>
@@ -2986,13 +2977,13 @@
         <v>639374</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2998,13 @@
         <v>248527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>68</v>
@@ -3022,13 +3013,13 @@
         <v>70294</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>302</v>
@@ -3037,13 +3028,13 @@
         <v>318821</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3049,13 @@
         <v>1895924</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>977</v>
@@ -3073,13 +3064,13 @@
         <v>1021416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>2792</v>
@@ -3088,18 +3079,18 @@
         <v>2917341</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF6B5EC-989B-40B0-B5A4-54FD63F9C8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3AD3E6-882E-409C-B3A5-62243D7BACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24107AAE-6BE8-48D4-9710-D03F205128B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A34EE5A4-11C7-4F53-9BB3-CBF1335C4698}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="245">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>27,09%</t>
@@ -296,7 +296,7 @@
     <t>13,05%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>29,69%</t>
@@ -407,7 +407,7 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>27,06%</t>
@@ -512,7 +512,7 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>37,16%</t>
@@ -617,13 +617,16 @@
     <t>10,9%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -632,37 +635,37 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>29,34%</t>
@@ -1179,8 +1182,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01140C55-C713-4CFE-84A5-7087601F5CE7}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FACFE4B-B05A-4B14-9330-2EBBD0B623E0}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2582,10 +2585,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>2471</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>194</v>
@@ -2603,28 +2606,28 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3621</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6091</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,16 +2639,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2654,28 +2657,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2705,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2720,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2756,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2771,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2816,10 +2819,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2833,55 +2836,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>530</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>556223</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>381</v>
-      </c>
-      <c r="I34" s="7">
-        <v>400208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
-        <v>911</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>956431</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,49 +2891,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>644307</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H35" s="7">
-        <v>344</v>
-      </c>
-      <c r="I35" s="7">
-        <v>358408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>1002715</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,49 +2940,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>446868</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
-        <v>184</v>
-      </c>
-      <c r="I36" s="7">
-        <v>192506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>639374</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,49 +2989,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>248527</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="H37" s="7">
-        <v>68</v>
-      </c>
-      <c r="I37" s="7">
-        <v>70294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>318821</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,63 +3038,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>530</v>
+      </c>
+      <c r="D39" s="7">
+        <v>556223</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="7">
+        <v>381</v>
+      </c>
+      <c r="I39" s="7">
+        <v>400208</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" s="7">
+        <v>911</v>
+      </c>
+      <c r="N39" s="7">
+        <v>956431</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>622</v>
+      </c>
+      <c r="D40" s="7">
+        <v>644307</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="7">
+        <v>344</v>
+      </c>
+      <c r="I40" s="7">
+        <v>358408</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="7">
+        <v>966</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1002715</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>429</v>
+      </c>
+      <c r="D41" s="7">
+        <v>446868</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="7">
+        <v>184</v>
+      </c>
+      <c r="I41" s="7">
+        <v>192506</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="7">
+        <v>613</v>
+      </c>
+      <c r="N41" s="7">
+        <v>639374</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>234</v>
+      </c>
+      <c r="D42" s="7">
+        <v>248527</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="7">
+        <v>68</v>
+      </c>
+      <c r="I42" s="7">
+        <v>70294</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" s="7">
+        <v>302</v>
+      </c>
+      <c r="N42" s="7">
+        <v>318821</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1815</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1895924</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>977</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1021416</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2792</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2917341</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>243</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
